--- a/Test.xlsx
+++ b/Test.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,22 +452,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04/08 11:43</t>
+          <t>04/08 12:38</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0MW</t>
+          <t>4.4MW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>15.714%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.03m/s</t>
+          <t>3.44m/s</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -479,108 +479,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04/08 11:43</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.0MW</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.000%</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.98m/s</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NorthWest</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>04/08 11:44</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.0MW</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.000%</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.57m/s</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NorthWest</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04/08 11:44</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.0MW</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.000%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.2m/s</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NorthWest</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04/08 11:44</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.0MW</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.000%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.4m/s</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SouthWest</t>
+          <t>windyAPI designed by Bernie.</t>
         </is>
       </c>
     </row>
